--- a/src/main/resources/assets/villages.xlsx
+++ b/src/main/resources/assets/villages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>编号</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>刘氏家族村</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>这是修改信息</t>
   </si>
 </sst>
 </file>
@@ -161,7 +170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -354,6 +363,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
